--- a/assets/conversation/Future-Perfect-Continuous.xlsx
+++ b/assets/conversation/Future-Perfect-Continuous.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\OneDrive\เอกสาร\GitHub\testgame\assets\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E04F70-60E8-436C-8AAC-01F0D67E5991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB61178A-1704-45BF-A08A-9BEFDD462D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{D43B909D-9606-49D5-820E-472773B2E9DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D43B909D-9606-49D5-820E-472773B2E9DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Actually, I will have been practicing yoga for 3 years already.</t>
   </si>
   <si>
-    <t>They will have settled into their new apartment and will be getting used to the city by then.</t>
-  </si>
-  <si>
-    <t>What will you do when you get there? Will you have started working yet?</t>
-  </si>
-  <si>
     <t>They will have been stuck in traffic and will be getting frustrated by then.</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>No, I won't be done yet, but I'll have been making good progress and will be close to finishing.</t>
   </si>
   <si>
-    <t>Yeah, I'll have started a book club and will be surrounded by people who only read classics.</t>
-  </si>
-  <si>
     <t>Will you have taken any classes? Will you be downward-facing dogging like a pro?</t>
   </si>
   <si>
@@ -86,48 +77,12 @@
     <t>Yeah, I'll have attempted to make a soufflé and will be setting off the fire alarm again.</t>
   </si>
   <si>
-    <t>Will you have beaten any difficult levels? Will you be getting frustrated with my lack of gaming skills?</t>
-  </si>
-  <si>
-    <t>No way! I'll have beaten every level already and will be teaching you how to game like a pro.</t>
-  </si>
-  <si>
     <t>Will you have done your homework already? Will you be getting an A+?</t>
   </si>
   <si>
-    <t>Will she have visited all the landmarks? Will they be getting lost in Tokyo's streets?</t>
-  </si>
-  <si>
-    <t>Yeah, she'll have visited the Eiffel Tower and will be trying to find her way out of a Tokyo subway station.</t>
-  </si>
-  <si>
-    <t>They will have been studying abroad for a semester. They'll have been learning new languages and trying new foods, and will be returning home soon.</t>
-  </si>
-  <si>
-    <t>Will he have mastered his language skills? Will they be struggling to adjust back to their old routine?</t>
-  </si>
-  <si>
-    <t>No way! He'll have become fluent and will be struggling to forget the language once he's back home.</t>
-  </si>
-  <si>
-    <t>Will he have hit his target time? Will they be cheering her on at the finish line?</t>
-  </si>
-  <si>
-    <t>Yeah, he'll have exceeded his goal and will be screaming her name as she crosses the finish line.</t>
-  </si>
-  <si>
-    <t>Will he have planned a surprise party? Will they be getting sentimental about their relationship?</t>
-  </si>
-  <si>
-    <t>Yeah, he'll have booked a surprise weekend getaway and will be getting mushy about their love.</t>
-  </si>
-  <si>
     <t>Will she have helped him with research? Will they be celebrating with a beer or two?</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
     <t>been</t>
   </si>
   <si>
@@ -157,9 +112,6 @@
     </r>
   </si>
   <si>
-    <t>studied</t>
-  </si>
-  <si>
     <t>studying</t>
   </si>
   <si>
@@ -195,9 +147,6 @@
     </r>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">What about you? Will you have been </t>
     </r>
@@ -227,41 +176,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>lived</t>
-  </si>
-  <si>
-    <t>living</t>
-  </si>
-  <si>
-    <r>
-      <t>By the time we arrive in Paris, they will have been</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lived</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> there for 2 months.</t>
-    </r>
-  </si>
-  <si>
-    <t>has</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">No, I will not </t>
     </r>
@@ -314,9 +228,6 @@
     </r>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>getting</t>
   </si>
   <si>
@@ -346,9 +257,6 @@
     </r>
   </si>
   <si>
-    <t>hike</t>
-  </si>
-  <si>
     <t>hiking</t>
   </si>
   <si>
@@ -381,9 +289,6 @@
     </r>
   </si>
   <si>
-    <t>had</t>
-  </si>
-  <si>
     <r>
       <t>We will</t>
     </r>
@@ -410,9 +315,6 @@
     </r>
   </si>
   <si>
-    <t>felt</t>
-  </si>
-  <si>
     <r>
       <t>How's your leg doing? Will you have been</t>
     </r>
@@ -439,13 +341,381 @@
     </r>
   </si>
   <si>
+    <t>working</t>
+  </si>
+  <si>
+    <r>
+      <t>By the time I finish my project, I will have been</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worked</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on it for 6 months.</t>
+    </r>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>written</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> code and will be ready to submit it by then.</t>
+    </r>
+  </si>
+  <si>
+    <t>praticing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I will have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>practiced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> yoga for 2 years. I'll have been bending and twisting in ways that would make a contortionist jealous and will be feeling super flexible soon.</t>
+    </r>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not yet, but I'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> YouTube tutorials and will be doing headstands on my desk by then.</t>
+    </r>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <r>
+      <t>Will you have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trying</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> any new recipes? Will you be whipping up a soufflé like Gordon Ramsay?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I will</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been procrastinating for 3 days. I'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been watching cat videos and playing Solitaire, and will be feeling guilty about not doing my homework soon.</t>
+    </r>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ugh, no! I'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it off until the last minute and will be pulling an all-nighter.</t>
+    </r>
+  </si>
+  <si>
+    <t>researching</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He will have been writing his thesis for a year. He'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>researched</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> obscure topics and crunching numbers, and will be submitting it soon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No way! She'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been his research partner in crime and will be popping open a bottle of champagne once it's submitted.</t>
+    </r>
+  </si>
+  <si>
+    <t>error type</t>
+  </si>
+  <si>
+    <r>
+      <t>By next year, we will have</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> being</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> studying the effects of climate change on polar bears for five years. What do you think we'll have found by then?</t>
+    </r>
+  </si>
+  <si>
+    <t>collecting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think we'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> data from over 1000 scientists around the world, and we'll have made some significant breakthroughs in understanding how rising temperatures are affecting their habitats.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's exciting! By 2050, we will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been reducing carbon emissions by 50% globally</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Yeah, it's a bit sore, but I've </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -461,111 +731,386 @@
         <charset val="222"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> taking regular breaks and will have been stretching along the way.</t>
-    </r>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <r>
-      <t>By the time I finish my project, I will have been</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on it for 6 months.</t>
-    </r>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>writing</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I will have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>written</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> code and will be ready to submit it by then.</t>
-    </r>
-  </si>
-  <si>
-    <t>pour</t>
-  </si>
-  <si>
-    <t>pouring</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I will have been writing a novel for 6 months. I'll have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pour </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>my heart and soul into it and will be feeling like a published author soon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Will you have started your own book club? Will</t>
+      <t xml:space="preserve"> taking regular breaks and will </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> been stretching along the way.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>By 2025, we will</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been developing self-driving cars for over a decade. Do you think they'll be widely available by then?</t>
+    </r>
+  </si>
+  <si>
+    <t>refining</t>
+  </si>
+  <si>
+    <r>
+      <t>Yes, I think most major cities will have implemented self-driving car systems by then. We'll have been testing and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the technology to ensure safety and efficiency.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's amazing. By then, we'll have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>being</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relying on them for daily commutes and will have seen a significant reduction in traffic accidents.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By graduation, we will have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> working on our thesis project for two years. What do you think we'll have accomplished by then?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think we'll have conducted extensive research, gathered data, and written a comprehensive paper on our topic. We'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">has </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been presenting our findings to our peers and professors regularly.</t>
+    </r>
+  </si>
+  <si>
+    <t>preparing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's impressive. By graduation day, we'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prepare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for months, and our hard work will be recognized with a degree in hand.</t>
+    </r>
+  </si>
+  <si>
+    <t>reducing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By 2030, we will have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reduced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> plastic waste in the oceans for over a decade. What do you think we'll have achieved by then?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think we'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> removed over 100 million tons of trash from the ocean and its coastlines. We'll have been implementing new recycling programs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's incredible. By then, we'll have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>being</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> working with governments and corporations to create policies and regulations that protect marine life and their habitats.</t>
+    </r>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By 2050, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">would </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have been generating 50% of our energy from renewable sources. Do you think we'll have overcome the challenges of intermittent power supply?</t>
+    </r>
+  </si>
+  <si>
+    <t>investing</t>
+  </si>
+  <si>
+    <r>
+      <t>Yes, I think we'll have developed advanced storage technologies to ensure a stable energy grid. We'll have been</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> invested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in research and development to improve efficiency and reduce costs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's exciting. By then, we'll have </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> phasing out fossil fuels and creating a cleaner, healthier environment for future generations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By 2040, we </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">would </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have been exploring Mars for over a decade. What do you think we'll have discovered by then?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I think we'll have</t>
     </r>
     <r>
       <rPr>
@@ -580,192 +1125,123 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>you</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>be discussing literature with a bunch of pretentious people?</t>
-    </r>
-  </si>
-  <si>
-    <t>practiced</t>
-  </si>
-  <si>
-    <t>praticing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">I will have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>practiced</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> yoga for 2 years. I'll have been bending and twisting in ways that would make a contortionist jealous and will be feeling super flexible soon.</t>
-    </r>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Not yet, but I'll have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> YouTube tutorials and will be doing headstands on my desk by then.</t>
-    </r>
-  </si>
-  <si>
-    <t>trying</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <r>
-      <t>Will you have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> trying</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> any new recipes? Will you be whipping up a soufflé like Gordon Ramsay?</t>
-    </r>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <r>
-      <t>I will have been</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> play</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> video games for 10 hours straight. I'll have been rescuing princesses and saving the world, and will be needing a break from reality soon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>I will</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>have</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> been procrastinating for 3 days. I'll </t>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">established a sustainable human settlement on the planet. We'll </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">had </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>been conducting extensive research and developing new technologies to support life beyond Earth.</t>
+    </r>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's mind-blowing. By then, we'll have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> back stunning images and data, revealing the Martian surface in unprecedented detail.</t>
+    </r>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By 2027, we will have been </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sustainable materials in our fashion designs for five years. Do you think we'll have changed the industry's impact on the environment?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yes, I think we'll have made significant progress. We'll have been</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> work</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="222"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with suppliers to source environmentally-friendly fabrics and reduce waste in the production process.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">That's fantastic. By then, we'll </t>
     </r>
     <r>
       <rPr>
@@ -786,196 +1262,7 @@
         <charset val="222"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> been watching cat videos and playing Solitaire, and will be feeling guilty about not doing my homework soon.</t>
-    </r>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ugh, no! I'll have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>put</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it off until the last minute and will be pulling an all-nighter.</t>
-    </r>
-  </si>
-  <si>
-    <t>backpacked</t>
-  </si>
-  <si>
-    <t>backpacking</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He will have been traveling the world for 5 years. He'll have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>backpacked</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> through Europe, eating weird foods, and taking crazy selfies soon.</t>
-    </r>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>training</t>
-  </si>
-  <si>
-    <t>trains</t>
-  </si>
-  <si>
-    <r>
-      <t>She will have been</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> trains </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>for the marathon for 6 months. She'll have been running through rain and shine, and will be crossing that finish line soon.</t>
-    </r>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>dating</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">They will have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for 2 years. They'll have been going on romantic getaways and having deep conversations, and will be celebrating their anniversary soon.</t>
-    </r>
-  </si>
-  <si>
-    <t>researched</t>
-  </si>
-  <si>
-    <t>researching</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">He will have been writing his thesis for a year. He'll have been </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>researched</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> obscure topics and crunching numbers, and will be submitting it soon.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">No way! She'll </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>has</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="222"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> been his research partner in crime and will be popping open a bottle of champagne once it's submitted.</t>
+      <t xml:space="preserve"> been collaborating with influencers and designers to promote eco-friendly fashion choices.</t>
     </r>
   </si>
 </sst>
@@ -1382,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66693BF-0082-43E4-AB52-524AE7FB424B}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1394,10 +1681,10 @@
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.58203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.58203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1413,8 +1700,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1423,16 +1713,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="56" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A5" si="0">A2</f>
         <v>1</v>
@@ -1442,16 +1735,23 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1461,16 +1761,23 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1482,14 +1789,21 @@
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
+      <c r="D5" s="1">
+        <v>-1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1498,16 +1812,19 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="98" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" ref="A7:A9" si="3">A6</f>
         <v>2</v>
@@ -1517,16 +1834,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1536,16 +1856,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1555,16 +1878,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1573,16 +1899,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" ref="A11:A13" si="5">A10</f>
         <v>3</v>
@@ -1592,16 +1921,19 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1611,16 +1943,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1630,16 +1965,19 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1648,16 +1986,19 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" ref="A15:A17" si="7">A14</f>
         <v>4</v>
@@ -1667,16 +2008,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1686,16 +2030,19 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D16" s="1">
+        <v>8</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1705,16 +2052,19 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="D17" s="1">
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1723,16 +2073,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="D18" s="1">
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" ref="A19:A21" si="9">A18</f>
         <v>5</v>
@@ -1742,16 +2095,19 @@
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -1761,16 +2117,19 @@
         <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -1780,16 +2139,19 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="71.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1798,16 +2160,19 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" ref="A23:A24" si="11">A22</f>
         <v>6</v>
@@ -1817,16 +2182,19 @@
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="D23" s="1">
+        <v>19</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -1836,16 +2204,19 @@
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
+        <v>57</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1854,16 +2225,19 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" ref="A26:A27" si="13">A25</f>
         <v>7</v>
@@ -1873,16 +2247,19 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -1892,16 +2269,19 @@
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
+      </c>
+      <c r="D27" s="1">
+        <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1910,16 +2290,19 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" ref="A29:A30" si="15">A28</f>
         <v>8</v>
@@ -1929,16 +2312,19 @@
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -1948,16 +2334,19 @@
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1966,16 +2355,19 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="D31" s="1">
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" ref="A32:A33" si="17">A31</f>
         <v>9</v>
@@ -1985,16 +2377,19 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="D32" s="1">
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -2004,16 +2399,19 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -2022,16 +2420,19 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" ref="A35:A36" si="19">A34</f>
         <v>10</v>
@@ -2041,16 +2442,19 @@
         <v>2</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="D35" s="1">
+        <v>-1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -2060,16 +2464,19 @@
         <v>3</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>44</v>
+      </c>
+      <c r="D36" s="1">
+        <v>5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -2078,16 +2485,19 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" ref="A38:A39" si="21">A37</f>
         <v>11</v>
@@ -2097,16 +2507,19 @@
         <v>2</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -2116,16 +2529,19 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="88" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>12</v>
       </c>
@@ -2134,16 +2550,19 @@
         <v>1</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" ref="A41:A42" si="23">A40</f>
         <v>12</v>
@@ -2153,16 +2572,19 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
+      </c>
+      <c r="D41" s="1">
+        <v>18</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="23"/>
         <v>12</v>
@@ -2172,16 +2594,19 @@
         <v>3</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="D42" s="1">
+        <v>6</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>13</v>
       </c>
@@ -2190,16 +2615,19 @@
         <v>1</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="92.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" ref="A44:A45" si="25">A43</f>
         <v>13</v>
@@ -2209,16 +2637,19 @@
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="D44" s="1">
+        <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -2228,16 +2659,19 @@
         <v>3</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>14</v>
       </c>
@@ -2246,16 +2680,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="D46" s="1">
+        <v>6</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="84" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" ref="A47:A48" si="27">A46</f>
         <v>14</v>
@@ -2265,16 +2702,19 @@
         <v>2</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>39</v>
+        <v>77</v>
+      </c>
+      <c r="D47" s="1">
+        <v>11</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="27"/>
         <v>14</v>
@@ -2284,16 +2724,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>39</v>
+        <v>78</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>15</v>
       </c>
@@ -2302,16 +2745,19 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>94</v>
+        <v>46</v>
+      </c>
+      <c r="D49" s="1">
+        <v>13</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" ref="A50:A51" si="29">A49</f>
         <v>15</v>
@@ -2321,16 +2767,19 @@
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="D50" s="1">
+        <v>-1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="29"/>
         <v>15</v>
@@ -2340,13 +2789,16 @@
         <v>3</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
